--- a/data/Enclave/conceptCodes/comp_uncomplicated_diabetesCodes.xlsx
+++ b/data/Enclave/conceptCodes/comp_uncomplicated_diabetesCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirna Elizondo\OneDrive - Texas State University\Desktop\PersonalRepo\DiabetesProject\DiabetesProject\data\Enclave\conceptCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B06BB-9531-45A3-B052-E4618EAF0C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7461F6D-EBAF-44C1-9099-E17986AAFDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="1554" windowWidth="17100" windowHeight="9900" activeTab="1" xr2:uid="{5AC9C98A-9AA1-4EBE-A527-62BEB9C0AA46}"/>
+    <workbookView xWindow="366" yWindow="366" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{5AC9C98A-9AA1-4EBE-A527-62BEB9C0AA46}"/>
   </bookViews>
   <sheets>
     <sheet name="complicated" sheetId="1" r:id="rId1"/>
@@ -16100,10 +16100,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="63.578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
